--- a/trees-vssm-2014-08-20.xlsx
+++ b/trees-vssm-2014-08-20.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="5490"/>
   </bookViews>
@@ -1404,7 +1399,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1418,6 +1413,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1440,7 +1441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1468,6 +1469,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1740,7 +1749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1751,11 +1760,11 @@
   <dimension ref="A1:T683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4335" ySplit="1140" topLeftCell="K87" activePane="bottomRight"/>
+      <pane xSplit="4335" ySplit="1140" topLeftCell="S88" activePane="bottomRight"/>
       <selection sqref="A1:B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD68"/>
-      <selection pane="bottomRight" activeCell="L69" sqref="L69"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B104"/>
+      <selection pane="bottomRight" activeCell="S97" sqref="S97:S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1765,8 +1774,8 @@
     <col min="3" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="15" width="27.42578125" customWidth="1"/>
     <col min="16" max="17" width="13.5703125" customWidth="1"/>
     <col min="18" max="18" width="75.28515625" customWidth="1"/>
@@ -6740,62 +6749,62 @@
       </c>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:20" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="24">
         <v>36.147970000000001</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="24">
         <v>-86.802019000000001</v>
       </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="6">
-        <v>0</v>
-      </c>
-      <c r="G101" s="13">
+      <c r="E101" s="25"/>
+      <c r="F101" s="24">
+        <v>0</v>
+      </c>
+      <c r="G101" s="26">
         <v>41871</v>
       </c>
-      <c r="H101" s="6">
+      <c r="H101" s="24">
         <v>23.67</v>
       </c>
-      <c r="I101" s="6">
+      <c r="I101" s="24">
         <v>77.67</v>
       </c>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10">
+      <c r="J101" s="27"/>
+      <c r="K101" s="27">
         <v>41871</v>
       </c>
-      <c r="L101" s="6">
+      <c r="L101" s="24">
         <v>17.07</v>
       </c>
-      <c r="M101" s="6">
+      <c r="M101" s="24">
         <v>56</v>
       </c>
-      <c r="N101" s="6">
+      <c r="N101" s="24">
         <v>17.285</v>
       </c>
-      <c r="O101" s="6">
+      <c r="O101" s="24">
         <v>17.285</v>
       </c>
-      <c r="P101" s="10">
+      <c r="P101" s="27">
         <v>41871</v>
       </c>
-      <c r="Q101" s="11">
+      <c r="Q101" s="28">
         <f t="shared" si="3"/>
         <v>91.662937499999998</v>
       </c>
-      <c r="R101" s="6" t="s">
+      <c r="R101" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="S101" s="14" t="s">
+      <c r="S101" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="T101" s="1"/>
+      <c r="T101" s="25"/>
     </row>
     <row r="102" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
@@ -24480,5 +24489,6 @@
     <hyperlink ref="S104" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId63"/>
 </worksheet>
 </file>